--- a/data/trans_bre/P44-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P44-Edad-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_bre/P44-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P44-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,27%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 5,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,29; -0,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,89; -3,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,54; 161,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,22; -4,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,04; -14,43</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,85%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,32%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; 2,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,13; 0,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,47; 1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,92; 33,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,21; 8,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,38; 5,18</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,22</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,6%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,78; -0,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; -1,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,53; -8,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,81; -3,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,95; -13,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,88; -19,68</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,59%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 0,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; -2,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,36; -5,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,97; 3,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,87; -19,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,64; -16,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P44-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P44-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-16,21</t>
+          <t>-37,71</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,27%</t>
+          <t>-60,63%</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,89; -3,94</t>
+          <t>-66,62; -4,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -907,14 +907,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,04; -14,43</t>
+          <t>-75,93; -13,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,32%</t>
+          <t>-10,6%</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 1,55</t>
+          <t>-8,68; 1,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,14 +987,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 5,18</t>
+          <t>-23,34; 4,96</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,22</t>
+          <t>-21,9</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-32,93%</t>
+          <t>-12,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-37,53%</t>
+          <t>-34,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-31,6%</t>
+          <t>-47,72%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -0,32</t>
+          <t>-6,8; 3,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -1,66</t>
+          <t>-9,59; 0,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,53; -8,08</t>
+          <t>-37,54; -8,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,81; -3,27</t>
+          <t>-48,04; 44,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,95; -13,69</t>
+          <t>-59,56; 4,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,88; -19,68</t>
+          <t>-79,75; -17,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,24</t>
+          <t>-9,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>-51,16%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-36,54%</t>
+          <t>-41,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-26,59%</t>
+          <t>-25,62%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-10,78; -1,48</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-12,27; -1,6</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-14,69; -3,78</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-74,13; -16,21</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-64,49; -10,83</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-37,16; -11,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-4,3</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-19,13</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-21,28%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-36,54%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-41,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-4,35; 0,19</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-6,55; -2,1</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-18,36; -5,87</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-40,47; -7,06</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-39,97; 3,91</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-50,87; -19,48</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-42,64; -16,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-65,91; -19,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P44-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P44-Edad-trans_bre.xlsx
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 5,55</t>
+          <t>-3,86; 5,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,29; -0,54</t>
+          <t>-8,63; -0,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,62; -4,06</t>
+          <t>-63,1; -3,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,54; 161,78</t>
+          <t>-44,55; 162,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,22; -4,05</t>
+          <t>-81,72; -13,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,93; -13,42</t>
+          <t>-75,45; -13,08</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 2,3</t>
+          <t>-5,99; 2,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,7</t>
+          <t>-7,46; 0,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 1,44</t>
+          <t>-8,71; 1,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-51,92; 33,59</t>
+          <t>-49,58; 36,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 8,7</t>
+          <t>-56,73; 5,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 4,96</t>
+          <t>-23,63; 4,81</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 3,29</t>
+          <t>-6,58; 3,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 0,26</t>
+          <t>-9,84; -0,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,54; -8,01</t>
+          <t>-35,86; -7,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 44,35</t>
+          <t>-47,07; 45,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,56; 4,97</t>
+          <t>-59,91; 2,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,75; -17,81</t>
+          <t>-80,04; -16,7</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,78; -1,48</t>
+          <t>-11,35; -1,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,27; -1,6</t>
+          <t>-11,79; -1,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,69; -3,78</t>
+          <t>-14,74; -3,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-74,13; -16,21</t>
+          <t>-74,78; -10,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-64,49; -10,83</t>
+          <t>-64,16; -10,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-37,16; -11,35</t>
+          <t>-37,52; -11,58</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,19</t>
+          <t>-4,74; 0,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -2,1</t>
+          <t>-6,76; -2,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,47; -7,06</t>
+          <t>-41,06; -8,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 3,91</t>
+          <t>-41,63; 1,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,87; -19,48</t>
+          <t>-50,88; -19,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,91; -19,75</t>
+          <t>-66,99; -22,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P44-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P44-Edad-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
